--- a/ExtendedBom.xlsx
+++ b/ExtendedBom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Eagle\Projects\NixieClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26B707B-7204-4C23-9BBC-1FBBCB1EC1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373E761-B738-43A1-8166-A569CBC76668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{8DFE7326-C9D9-40E3-9725-173A48755D3C}"/>
+    <workbookView xWindow="6100" yWindow="3280" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{8DFE7326-C9D9-40E3-9725-173A48755D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -937,15 +937,9 @@
     <t>Phototransistor, 570 nm, 150 °, 2 Pins, Radial Leaded</t>
   </si>
   <si>
-    <t>PEC11R-4220K-S0024</t>
-  </si>
-  <si>
     <t>Rotary Encoder, Mechanical, Incremental, 24 PPR, 24 Detents, Vertical, With Momentary Push Switch</t>
   </si>
   <si>
-    <t>https://hu.farnell.com/bourns/pec11r-4220k-s0024/incremental-encoder-12mm-60rpm/dp/2663528</t>
-  </si>
-  <si>
     <t>IC &amp; Component Socket, 20 Contacts, SIP Socket, 2.54 mm, D01 Series, Beryllium Copper</t>
   </si>
   <si>
@@ -968,13 +962,19 @@
   </si>
   <si>
     <t>https://hu.farnell.com/vishay/crcw060356r0fkea/res-56r-1-0-1w-0603-thick-film/dp/2141248</t>
+  </si>
+  <si>
+    <t>PEC11R-4215F-S0024</t>
+  </si>
+  <si>
+    <t>https://hu.farnell.com/bourns/pec11r-4215f-s0024/incremental-encoder-2ch-24pulse/dp/2474844</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +986,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1008,19 +1016,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1029,23 +1041,6 @@
         <b/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1061,6 +1056,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1163,17 +1168,17 @@
   <autoFilter ref="A1:L41" xr:uid="{5E44629F-0672-4555-8377-A7403DE54349}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{970E23A4-5FC5-4748-9A6F-68D93264B216}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6D968945-F504-4018-BD15-8399BA34A2D1}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{92F8A649-73D2-4A9F-B1E2-916D4B96737F}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F41E20A6-BE01-4D65-A3A2-46D31DB2F9CE}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DC52B5D5-4848-4F4B-A2A5-A381C3ECEEF3}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{21F0180C-74EF-4A10-B8F5-301E9B89099B}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{532BB157-CAA3-4B07-B865-AC44DEB8604B}" uniqueName="7" name="MANUFACTURER" queryTableFieldId="7" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{1CA22CD1-39A4-44DD-AA82-7DE0E6C9962D}" uniqueName="8" name="PACKAGE.1" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{E4EDF2FA-5689-4B62-BCF1-6670687F8FB0}" uniqueName="9" name="PARAMETER" queryTableFieldId="9" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{4D761F95-302A-4B4C-A577-DC3D66AD7BCD}" uniqueName="10" name="PARTNUMBER" queryTableFieldId="10" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{D70CDD32-0ED2-436F-BB4B-3F5B631B17BC}" uniqueName="11" name="VALUE.1" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{E4B7585A-947E-4C3E-8B1F-AB11F40CE1D3}" uniqueName="12" name="Column1" queryTableFieldId="12" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6D968945-F504-4018-BD15-8399BA34A2D1}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{92F8A649-73D2-4A9F-B1E2-916D4B96737F}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{F41E20A6-BE01-4D65-A3A2-46D31DB2F9CE}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{DC52B5D5-4848-4F4B-A2A5-A381C3ECEEF3}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{21F0180C-74EF-4A10-B8F5-301E9B89099B}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{532BB157-CAA3-4B07-B865-AC44DEB8604B}" uniqueName="7" name="MANUFACTURER" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{1CA22CD1-39A4-44DD-AA82-7DE0E6C9962D}" uniqueName="8" name="PACKAGE.1" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{E4EDF2FA-5689-4B62-BCF1-6670687F8FB0}" uniqueName="9" name="PARAMETER" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{4D761F95-302A-4B4C-A577-DC3D66AD7BCD}" uniqueName="10" name="PARTNUMBER" queryTableFieldId="10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{D70CDD32-0ED2-436F-BB4B-3F5B631B17BC}" uniqueName="11" name="VALUE.1" queryTableFieldId="11" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{E4B7585A-947E-4C3E-8B1F-AB11F40CE1D3}" uniqueName="12" name="Column1" queryTableFieldId="12" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,11 +1188,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A22D9145-36D1-4258-A0CE-743014689D20}" name="BOM_3" displayName="BOM_3" ref="A1:H45" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H45" xr:uid="{5E44629F-0672-4555-8377-A7403DE54349}"/>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{11A2E499-B464-40E2-B7EF-03CDF3643994}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{05841F07-F7E3-4FD9-ADED-26EC2156B686}" uniqueName="10" name="Partnumber" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{851A4366-5156-47B4-9C23-4325CD669878}" uniqueName="13" name="Link" queryTableFieldId="13" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{699CB8BC-6DD6-40F5-85E0-D2DF4ECBB571}" uniqueName="1" name="QtyPerBoard" queryTableFieldId="14" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D3FB0052-E126-477C-8030-57F416DA1D9D}" uniqueName="2" name="Stock" queryTableFieldId="15" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{11A2E499-B464-40E2-B7EF-03CDF3643994}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{05841F07-F7E3-4FD9-ADED-26EC2156B686}" uniqueName="10" name="Partnumber" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{851A4366-5156-47B4-9C23-4325CD669878}" uniqueName="13" name="Link" queryTableFieldId="13" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{699CB8BC-6DD6-40F5-85E0-D2DF4ECBB571}" uniqueName="1" name="QtyPerBoard" queryTableFieldId="14" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D3FB0052-E126-477C-8030-57F416DA1D9D}" uniqueName="2" name="Stock" queryTableFieldId="15" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{1F0B9A4D-0C7C-42E1-BC79-D932D5CA2D0D}" uniqueName="3" name="MinOrderAmount" queryTableFieldId="16" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{C97AAF79-C8D7-445D-B1A0-E448F2695C47}" uniqueName="4" name="AmountToBeOrdered" queryTableFieldId="17" dataDxfId="1">
       <calculatedColumnFormula>CEILING(MAX(0, $L$5*D2-E2) / F2,1)*F2</calculatedColumnFormula>
@@ -3086,7 +3091,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3140,14 +3145,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="3">
         <f>CEILING(MAX(0, $L$5*D2-E2) / F2,1)*F2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -3165,14 +3170,14 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G43" si="0">CEILING(MAX(0, $L$5*D3-E3) / F3,1)*F3</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -3190,14 +3195,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -3215,21 +3220,21 @@
         <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1"/>
       <c r="K5" t="s">
         <v>289</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3246,14 +3251,14 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -3271,14 +3276,14 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3296,14 +3301,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3321,14 +3326,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3343,17 +3348,17 @@
         <v>276</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3371,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -3396,14 +3401,14 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -3414,21 +3419,21 @@
       <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>274</v>
       </c>
       <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -3446,42 +3451,42 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>304</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3498,14 +3503,14 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>10</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3523,14 +3528,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -3548,14 +3553,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -3573,14 +3578,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -3598,14 +3603,14 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -3617,7 +3622,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3648,14 +3653,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
         <v>5</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -3673,14 +3678,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -3698,14 +3703,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -3723,14 +3728,14 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -3748,14 +3753,14 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -3798,14 +3803,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -3830,7 +3835,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -3855,7 +3860,7 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -3923,14 +3928,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -3948,14 +3953,14 @@
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -3973,14 +3978,14 @@
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -3998,14 +4003,14 @@
         <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -4023,14 +4028,14 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -4083,14 +4088,14 @@
         <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -4108,42 +4113,42 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -4167,46 +4172,46 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D44" s="1">
         <v>44</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
         <v>20</v>
       </c>
       <c r="G44" s="3">
         <f>CEILING(MAX(0, $L$5*D44-E44) / F44,1)*F44</f>
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4219,20 +4224,23 @@
       </c>
       <c r="G45" s="3">
         <f>CEILING(MAX(0, $L$5*D45-E45) / F45,1)*F45</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H45" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G45">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$G2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{5EA727D0-09C9-43DF-A004-025613A9E29B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
